--- a/biology/Zoologie/Carangue/Carangue.xlsx
+++ b/biology/Zoologie/Carangue/Carangue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme carangue désigne plusieurs espèces de poissons océaniques de la famille des carangidés.
-Poisson solitaire qui pendant les migrations se regroupe en banc. Durant son ascension contre le courant, il marque des pauses et l'ensemble du banc forme des rondes dans le sens horaire. Ce phénomène ne trouve pas de signification[1].
+Poisson solitaire qui pendant les migrations se regroupe en banc. Durant son ascension contre le courant, il marque des pauses et l'ensemble du banc forme des rondes dans le sens horaire. Ce phénomène ne trouve pas de signification.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carangue ailes bleues — Caranx melampygus
 Carangue arc-en-ciel — Elagatis bipinnulata
